--- a/xls/square_high_un_16_tri3_17.xlsx
+++ b/xls/square_high_un_16_tri3_17.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17">
-        <v>1734</v>
+        <v>2070</v>
       </c>
       <c r="I17">
-        <v>-2.2111916900278006</v>
+        <v>-1.9390948629857703</v>
       </c>
       <c r="J17">
-        <v>-1.9189649659365093</v>
+        <v>-1.6168306328170803</v>
       </c>
       <c r="K17">
-        <v>-0.4608150884402072</v>
+        <v>0.26189416496222123</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18">
-        <v>1944</v>
+        <v>2388</v>
       </c>
       <c r="I18">
-        <v>-2.0239007060445604</v>
+        <v>-1.033969371384184</v>
       </c>
       <c r="J18">
-        <v>-1.6698456957730696</v>
+        <v>-0.8933240691115402</v>
       </c>
       <c r="K18">
-        <v>0.19766908695353913</v>
+        <v>1.2615411680866597</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19">
-        <v>2166</v>
+        <v>2676</v>
       </c>
       <c r="I19">
-        <v>-1.515687340288546</v>
+        <v>-0.2351539542406995</v>
       </c>
       <c r="J19">
-        <v>-1.3148837800150568</v>
+        <v>-0.20720885697782415</v>
       </c>
       <c r="K19">
-        <v>0.7689711496796756</v>
+        <v>2.170697993337681</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20">
-        <v>2400</v>
+        <v>3138</v>
       </c>
       <c r="I20">
-        <v>-0.7463113723991668</v>
+        <v>-5.190861278020833e-6</v>
       </c>
       <c r="J20">
-        <v>-0.6733887410291931</v>
+        <v>-1.078358919918645e-5</v>
       </c>
       <c r="K20">
-        <v>1.4240412238897033</v>
+        <v>2.0614295630202704</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21">
-        <v>2646</v>
+        <v>3330</v>
       </c>
       <c r="I21">
-        <v>-0.23404795880270632</v>
+        <v>-1.2638110521103668e-6</v>
       </c>
       <c r="J21">
-        <v>-0.22608429902066504</v>
+        <v>-4.526018307875199e-6</v>
       </c>
       <c r="K21">
-        <v>2.218121086669156</v>
+        <v>1.913211307913832</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>529</v>
+        <v>668</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22">
-        <v>2904</v>
+        <v>3738</v>
       </c>
       <c r="I22">
-        <v>-9.47384605782082e-5</v>
+        <v>-4.300230477289136e-6</v>
       </c>
       <c r="J22">
-        <v>-0.0005279981276396445</v>
+        <v>-4.235263251932639e-6</v>
       </c>
       <c r="K22">
-        <v>2.826274222418278</v>
+        <v>1.757599044673419</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>576</v>
+        <v>741</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23">
-        <v>3174</v>
+        <v>4164</v>
       </c>
       <c r="I23">
-        <v>-1.4831864495364964e-5</v>
+        <v>-1.2281599431400874e-6</v>
       </c>
       <c r="J23">
-        <v>-1.7094017267073922e-5</v>
+        <v>-1.3797143759596829e-6</v>
       </c>
       <c r="K23">
-        <v>2.1005272315141283</v>
+        <v>1.5445739024430825</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>-6.066104306229003e-6</v>
+        <v>-1.913763689595571e-6</v>
       </c>
       <c r="J24">
-        <v>-7.067108011752932e-6</v>
+        <v>-1.7968021835287826e-6</v>
       </c>
       <c r="K24">
-        <v>1.9177315994854982</v>
+        <v>1.557827336377496</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-4.678187772771536e-6</v>
+        <v>-1.557556497104204e-6</v>
       </c>
       <c r="J25">
-        <v>-4.944346570940159e-6</v>
+        <v>-1.415735637160415e-6</v>
       </c>
       <c r="K25">
-        <v>1.8154429875788556</v>
+        <v>1.4946622702852428</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -791,22 +791,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-2.641683581609142e-6</v>
+        <v>-9.435630410449214e-7</v>
       </c>
       <c r="J26">
-        <v>-2.8068747530219297e-6</v>
+        <v>-9.539140050676838e-7</v>
       </c>
       <c r="K26">
-        <v>1.6968208552394248</v>
+        <v>1.4410052738451882</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -826,22 +826,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-2.4535174941130273e-6</v>
+        <v>-8.269786907770482e-7</v>
       </c>
       <c r="J27">
-        <v>-2.4733320428675575e-6</v>
+        <v>-8.257238818157516e-7</v>
       </c>
       <c r="K27">
-        <v>1.6548870157971842</v>
+        <v>1.4061606187560587</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -861,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-1.6886614440949837e-6</v>
+        <v>-7.439430778375231e-7</v>
       </c>
       <c r="J28">
-        <v>-1.86455405721512e-6</v>
+        <v>-7.322981489643575e-7</v>
       </c>
       <c r="K28">
-        <v>1.615739952018694</v>
+        <v>1.3768244003945405</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -896,22 +896,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-1.2607469781190742e-6</v>
+        <v>-9.52562717313315e-7</v>
       </c>
       <c r="J29">
-        <v>-1.5132525426661732e-6</v>
+        <v>-8.754650277228006e-7</v>
       </c>
       <c r="K29">
-        <v>1.5821564571252498</v>
+        <v>1.3947211144436629</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -931,22 +931,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-9.69344616703833e-7</v>
+        <v>-7.373521869192915e-7</v>
       </c>
       <c r="J30">
-        <v>-1.1579572266352576e-6</v>
+        <v>-6.961802532524885e-7</v>
       </c>
       <c r="K30">
-        <v>1.523696232530939</v>
+        <v>1.3542964467983634</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -966,22 +966,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-1.0014205743158609e-6</v>
+        <v>-7.900885515788663e-7</v>
       </c>
       <c r="J31">
-        <v>-1.0399959102331877e-6</v>
+        <v>-7.189005754720918e-7</v>
       </c>
       <c r="K31">
-        <v>1.46915070931171</v>
+        <v>1.3505130325293264</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1001,22 +1001,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-8.594278052801976e-7</v>
+        <v>-6.596446439650009e-7</v>
       </c>
       <c r="J32">
-        <v>-8.43553322009766e-7</v>
+        <v>-6.104216471054241e-7</v>
       </c>
       <c r="K32">
-        <v>1.4098319126347865</v>
+        <v>1.319622485078424</v>
       </c>
     </row>
   </sheetData>
